--- a/algo.xlsx
+++ b/algo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkeey/Programming/AlgoCourse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12ABDE3-34DD-4640-BA7E-F53C4BBCA765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD58AB-E2D8-5F4B-ABF4-630BFC9C3B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{2B554A39-0D60-294F-A90A-7AD5C0794A65}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="16220" xr2:uid="{2B554A39-0D60-294F-A90A-7AD5C0794A65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>контест</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>4 ноября 2025 • ACM Div C Линейные алгоритмы 2</t>
+  </si>
+  <si>
+    <t>06 November 2025 • Итоговый 1</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B20D8-24D2-C44C-BAA0-1BC8E2AD4C56}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,11 +535,11 @@
       </c>
       <c r="G3" s="2">
         <f>SUM(B:B)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4">
         <f>G3/G4</f>
-        <v>0.59259259259259256</v>
+        <v>0.5730337078651685</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -551,7 +554,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM(C:C)</f>
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -662,6 +665,17 @@
       </c>
       <c r="C14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
